--- a/results/expression.xlsx
+++ b/results/expression.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t xml:space="preserve">exposure</t>
   </si>
@@ -29,238 +29,628 @@
     <t xml:space="preserve">samplesize</t>
   </si>
   <si>
+    <t xml:space="preserve">SNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNPlist</t>
+  </si>
+  <si>
     <t xml:space="preserve">Method</t>
   </si>
   <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.adj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gene</t>
-  </si>
-  <si>
     <t xml:space="preserve">tissue</t>
   </si>
   <si>
+    <t xml:space="preserve">hgnc_symbol</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENSG00000169242.11</t>
   </si>
   <si>
     <t xml:space="preserve">C2</t>
   </si>
   <si>
-    <t xml:space="preserve">d2wt1t</t>
+    <t xml:space="preserve">Y9ePzL</t>
   </si>
   <si>
     <t xml:space="preserve">gvkpcQ</t>
   </si>
   <si>
-    <t xml:space="preserve">chr1:155149251</t>
+    <t xml:space="preserve">chr1:155149251:C:T</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000169242</t>
   </si>
   <si>
+    <t xml:space="preserve">chr1:155149251:C:T,chr1:155149251:C:T,chr1:155149251:C:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wald ratio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lung</t>
   </si>
   <si>
+    <t xml:space="preserve">EFNA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000225190.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YcQg46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vsgj3s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverse variance weighted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000225190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17:45406185:T:C,chr17:45406185:T:C,chr17:45406185:T:C,chr17:45881900:AC:A,chr17:45881900:AC:A,chr17:45881900:AC:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All - Inverse variance weighted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEKHM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000160766.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sngmpM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:155227671:T:C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000160766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:155227671:T:C,chr1:155227671:T:C,chr1:155227671:T:C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBAP1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENSG00000204650.14</t>
   </si>
   <si>
     <t xml:space="preserve">B2</t>
   </si>
   <si>
-    <t xml:space="preserve">XNg22F</t>
+    <t xml:space="preserve">iFbznW</t>
   </si>
   <si>
     <t xml:space="preserve">KoOyJi</t>
   </si>
   <si>
-    <t xml:space="preserve">chr17:46112544</t>
+    <t xml:space="preserve">chr17:46112544:G:A</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000204650</t>
   </si>
   <si>
+    <t xml:space="preserve">chr17:46112544:G:A,chr17:46112544:G:A,chr17:46112544:G:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINC02210</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENSG00000176715.15</t>
   </si>
   <si>
-    <t xml:space="preserve">A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IzZLN7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vsgj3s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr16:89110549</t>
+    <t xml:space="preserve">k9gBLb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16:89110549:A:G</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000176715</t>
   </si>
   <si>
+    <t xml:space="preserve">chr16:89110549:A:G,chr16:89110549:A:G,chr16:89110549:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACSF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000214425.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eOiOUO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000214425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17:45836199:G:A,chr17:45836199:G:A,chr17:45836199:G:A,chr17:46115580:T:C,chr17:46115580:T:C,chr17:46115580:T:C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRRC37A4P</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENSG00000185303.16</t>
   </si>
   <si>
-    <t xml:space="preserve">1oPb0j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr10:79634012</t>
+    <t xml:space="preserve">fRX3vQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10:79634012:G:A</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000185303</t>
   </si>
   <si>
-    <t xml:space="preserve">ENSG00000122852.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qgIDgM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000122852</t>
+    <t xml:space="preserve">chr10:79634012:G:A,chr10:79634012:G:A,chr10:79634012:G:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFTPA2</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000131401.11</t>
   </si>
   <si>
-    <t xml:space="preserve">q3ORkN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19:50342447</t>
+    <t xml:space="preserve">5NbEeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19:50342447:A:G</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000131401</t>
   </si>
   <si>
-    <t xml:space="preserve">ENSG00000214425.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3nxq3d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverse variance weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000214425</t>
+    <t xml:space="preserve">chr19:50342447:A:G,chr19:50342447:A:G,chr19:50342447:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAPSB</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000267198.1</t>
   </si>
   <si>
-    <t xml:space="preserve">AI65oQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr17:46044213</t>
+    <t xml:space="preserve">dGAmLk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17:46044213:C:T</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000267198</t>
   </si>
   <si>
+    <t xml:space="preserve">chr17:46044213:C:T,chr17:46044213:C:T,chr17:46044213:C:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">ENSG00000105559.11</t>
   </si>
   <si>
-    <t xml:space="preserve">gAbK11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19:48866686</t>
+    <t xml:space="preserve">lPsUbK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19:48866686:G:A</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000105559</t>
   </si>
   <si>
-    <t xml:space="preserve">ENSG00000106330.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CiLcvB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr7:100613863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000106330</t>
+    <t xml:space="preserve">chr19:48866686:G:A,chr19:48866686:G:A,chr19:48866686:G:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEKHA4</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000142002.16</t>
   </si>
   <si>
-    <t xml:space="preserve">xaBhMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19:4715116</t>
+    <t xml:space="preserve">GFMIhY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19:4715116:T:A</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000142002</t>
   </si>
   <si>
-    <t xml:space="preserve">ENSG00000117500.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9eFB7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000117500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000160766.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oy3wcb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000160766</t>
+    <t xml:space="preserve">chr19:4715116:T:A,chr19:4715116:T:A,chr19:4715116:T:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPP9</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000076662.9</t>
   </si>
   <si>
-    <t xml:space="preserve">LMvDiv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19:10338716</t>
+    <t xml:space="preserve">GvsJxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19:10338716:G:A</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000076662</t>
   </si>
   <si>
+    <t xml:space="preserve">chr19:10338716:G:A,chr19:10338716:G:A,chr19:10338716:G:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICAM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000169231.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmecX8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000169231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:155060538:A:G,chr1:155060538:A:G,chr1:155060538:A:G,chr1:155208991:A:T,chr1:155208991:A:T,chr1:155208991:A:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THBS3</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENSG00000143537.13</t>
   </si>
   <si>
-    <t xml:space="preserve">cr1uBq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1:155542700</t>
+    <t xml:space="preserve">rfHM8P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:155542700:A:G</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000143537</t>
   </si>
   <si>
-    <t xml:space="preserve">ENSG00000169231.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zrMOC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000169231</t>
+    <t xml:space="preserve">chr1:155542700:A:G,chr1:155542700:A:G,chr1:155542700:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAM15</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000163820.14</t>
   </si>
   <si>
-    <t xml:space="preserve">3AuwtV</t>
+    <t xml:space="preserve">U1D453</t>
   </si>
   <si>
     <t xml:space="preserve">ENSG00000163820</t>
   </si>
   <si>
+    <t xml:space="preserve">chr3:45921260:C:T,chr3:45921260:C:T,chr3:45921260:C:T,chr3:46050863:A:G,chr3:46050863:A:G,chr3:46050863:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FYCO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000175164.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b5SpLW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000175164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9:133252613:C:G,chr9:133252613:C:G,chr9:133252613:C:G,chr9:133257521:TC:T,chr9:133257521:TC:T,chr9:133257521:TC:T,chr9:133258308:C:A,chr9:133258308:C:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000160783.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hVD2Cy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:155602784:C:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000160783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:155602784:C:T,chr1:155602784:C:T,chr1:155602784:C:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000168743.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvscbw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000168743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4:105847441:T:G,chr4:105847441:T:G,chr4:105847441:T:G,chr4:105907638:C:T,chr4:105907638:C:T,chr4:105907638:C:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000159110.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VoOEwq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000159110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21:33229937:G:C,chr21:33229937:G:C,chr21:33229937:G:C,chr21:33258828:G:A,chr21:33258828:G:A,chr21:33258828:G:A,chr21:33288675:G:A,chr21:33288675:G:A,chr21:33288675:G:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFNAR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wDPTB6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21:33238182:C:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21:33238182:C:T,chr21:33238182:C:T,chr21:33238182:C:T</t>
+  </si>
+  <si>
     <t xml:space="preserve">WBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vCQDCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17:45623210:A:AG,chr17:45623210:A:AG,chr17:45623210:A:AG,chr17:46025375:T:TCA,chr17:46025375:T:TCA,chr17:46025375:T:TCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X5juea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:155208991:A:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:155208991:A:T,chr1:155208991:A:T,chr1:155208991:A:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ep9Jnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:155212373:T:C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:155212373:T:C,chr1:155212373:T:C,chr1:155212373:T:C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0uuDiC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19:4717175:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19:4717175:A:G,chr19:4717175:A:G,chr19:4717175:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000164398.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HisoBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5:131991652:C:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000164398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5:131991652:C:T,chr5:131991652:C:T,chr5:131991652:C:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACSL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lwinjO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:156211824:A:AC,chr1:156211824:A:AC,chr1:156211824:A:AC,chr1:156220489:A:C,chr1:156220489:A:C,chr1:156220489:A:C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bp7Gpk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19:49690180:A:C,chr19:49690180:A:C,chr19:49690180:A:C,chr19:50344768:A:G,chr19:50344768:A:G,chr19:50344768:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJb35m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19:48847516:G:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19:48847516:G:A,chr19:48847516:G:A,chr19:48847516:G:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000089127.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t76C7p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12:112907451:G:C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000089127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12:112907451:G:C,chr12:112907451:G:C,chr12:112907451:G:C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000121807.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yUh0MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3:46297882:G:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000121807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3:46297882:G:A,chr3:46297882:G:A,chr3:46297882:G:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000090339.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vRjhms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19:10286455:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000090339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19:10286455:A:G,chr19:10286455:A:G,chr19:10286455:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ee2B2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:155062156:G:C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:155062156:G:C,chr1:155062156:G:C,chr1:155062156:G:C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Cs0vZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17:45318966:G:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17:45318966:G:A,chr17:45318966:G:A,chr17:45318966:G:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lJeMyE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oYoTzX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3:45995913:T:C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3:45995913:T:C,chr3:45995913:T:C,chr3:45995913:T:C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000111335.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zZ0zfn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12:112404650:C:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000111335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12:112404650:C:T,chr12:112404650:C:T,chr12:112404650:C:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYOxdK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17:44958892:T:C,chr17:44958892:T:C,chr17:44958892:T:C,chr17:46044213:C:T,chr17:46044213:C:T,chr17:46044213:C:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000185499.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fibhaH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000185499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1:155147165:C:G,chr1:155147165:C:G,chr1:155197995:G:A,chr1:155197995:G:A,chr1:155197995:G:A,chr1:155215184:A:G,chr1:155215184:A:G,chr1:155215184:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t1evke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16:89113159:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16:89113159:A:G,chr16:89113159:A:G,chr16:89113159:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dDP2j6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9:133226612:G:T,chr9:133226612:G:T,chr9:133226612:G:T,chr9:133251979:T:C,chr9:133251979:T:C,chr9:133251979:T:C,chr9:133318693:G:A,chr9:133318693:G:A,chr9:133318693:G:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dGoMRg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17:46285499:C:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000148288.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biMJL0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9:133163943:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000148288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9:133163943:A:G,chr9:133163943:A:G,chr9:133163943:A:G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBGT1</t>
   </si>
 </sst>
 </file>
@@ -629,617 +1019,725 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>0.211729326683012</v>
+        <v>0.213156773988751</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0304039004247154</v>
+        <v>0.0306088789528443</v>
       </c>
       <c r="I2" t="n">
         <v>0.00000000000331010167925587</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.0000000436205199292339</v>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0840640340075235</v>
+        <v>-0.418752224014956</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0145757775116254</v>
+        <v>0.0622956482928268</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00000000805138232431668</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.000104128527600388</v>
+        <v>0.0000000000179229647351916</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.665926187711415</v>
+        <v>0.0796582025464453</v>
       </c>
       <c r="H4" t="n">
-        <v>0.121197332031885</v>
+        <v>0.0122680822626123</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0000000391682539383266</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.000506876374215885</v>
+        <v>0.0000000000840733771901304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>0.583561585209278</v>
+        <v>-0.0620364548719253</v>
       </c>
       <c r="H5" t="n">
-        <v>0.110958943193814</v>
+        <v>0.010756437928523</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000000144638720432132</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.00187176968111221</v>
+        <v>0.00000000805138232431668</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G6" t="n">
-        <v>0.775045235366004</v>
+        <v>0.563867078418041</v>
       </c>
       <c r="H6" t="n">
-        <v>0.147367822734206</v>
+        <v>0.102622763282131</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000000144638720432132</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.00187176968111221</v>
+        <v>0.0000000391682539383266</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.118120160194023</v>
+        <v>0.0624680648619399</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0224642214390677</v>
+        <v>0.0117260544398087</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000000145514830772197</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.00188194330637682</v>
+        <v>0.0000000996902274042548</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0840494809738909</v>
+        <v>0.656616835388239</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0161811084065689</v>
+        <v>0.124849736488082</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000000205494989567005</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.00265931065998661</v>
+        <v>0.000000144638720432132</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.132049054503129</v>
+        <v>-0.118749087747841</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0255674949252993</v>
+        <v>0.0225838315700977</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000000240793967187982</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.00311611472937968</v>
+        <v>0.000000145514830772197</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0721269527687155</v>
+        <v>0.0962252924644355</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0140622925309272</v>
+        <v>0.0185578242100472</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000000291125375665788</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.00376512448348564</v>
+        <v>0.00000021582920083355</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.121171107712124</v>
+        <v>-0.0974478004449635</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0249426420866205</v>
+        <v>0.0188679589773143</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00000118583351891349</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0156269141122419</v>
+        <v>0.000000240793967187982</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0542287140825509</v>
+        <v>0.0718326933360819</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0114130673904532</v>
+        <v>0.0140049219910273</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00000201954785389801</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.026118812394463</v>
+        <v>0.000000291125375665789</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G13" t="n">
-        <v>0.139540912988852</v>
+        <v>-0.128669481797994</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0294163691841334</v>
+        <v>0.0264861557557354</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00000209903031327114</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.0276610214682871</v>
+        <v>0.00000118583351891349</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G14" t="n">
-        <v>0.369605582762547</v>
+        <v>0.312960240887284</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0818397536224567</v>
+        <v>0.0692970837085401</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00000629559827811335</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.08142097253084</v>
+        <v>0.00000629559827811338</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.042904920113963</v>
+        <v>-0.0431333661845549</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00981087492134312</v>
+        <v>0.00986311265582429</v>
       </c>
       <c r="I15" t="n">
         <v>0.0000122438349651445</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.161349257170674</v>
+      <c r="J15" t="s">
+        <v>67</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
-        <v>0.335993894262319</v>
+        <v>0.378056495067569</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0774415817855003</v>
+        <v>0.0871363839708862</v>
       </c>
       <c r="I16" t="n">
         <v>0.0000143343985860181</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.185386776912972</v>
+      <c r="J16" t="s">
+        <v>61</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="G17" t="n">
-        <v>0.446243333112288</v>
+        <v>-0.173787609733537</v>
       </c>
       <c r="H17" t="n">
-        <v>0.102852433236389</v>
+        <v>0.040442487437248</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0000143343985860181</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.185386776912972</v>
+        <v>0.000017300475389729</v>
+      </c>
+      <c r="J17" t="s">
+        <v>67</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.172867183157246</v>
+        <v>0.346793237790567</v>
       </c>
       <c r="H18" t="n">
-        <v>0.040228292994355</v>
+        <v>0.0859610019297731</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0000173004753897291</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.223885452018485</v>
+        <v>0.0000547632302007518</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -1247,2267 +1745,4493 @@
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
         <v>60</v>
       </c>
       <c r="G19" t="n">
-        <v>0.362850153443253</v>
+        <v>0.146535516122358</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0899410926783714</v>
+        <v>0.03993730867436</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0000547632302007518</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.708690962027929</v>
+        <v>0.000243369228668138</v>
+      </c>
+      <c r="J19" t="s">
+        <v>61</v>
       </c>
       <c r="K19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.349356037352801</v>
+        <v>0.0712938523558412</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0925103555842017</v>
+        <v>0.0205711195323552</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00015911187698477</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
+        <v>0.000528802983408986</v>
+      </c>
+      <c r="J20" t="s">
+        <v>73</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0755901171617445</v>
+        <v>0.0894899048984375</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0204174103239487</v>
+        <v>0.0277873147141141</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000213705804348128</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
+        <v>0.00127953410426604</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="G22" t="n">
-        <v>0.130231960968929</v>
+        <v>0.0558154726246288</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0354938799965762</v>
+        <v>0.0182457740233303</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000243369228668139</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
+        <v>0.00222010127443267</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="G23" t="n">
-        <v>0.172964882198581</v>
+        <v>-0.363543497528806</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0471404617323014</v>
+        <v>0.119478620537704</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000243369228668139</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
+        <v>0.00234427490879186</v>
+      </c>
+      <c r="J23" t="s">
+        <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>0.216794966396107</v>
+        <v>-0.098742382755513</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0613445545739186</v>
+        <v>0.0332552127493695</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000409237511603276</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
+        <v>0.00298546829896727</v>
+      </c>
+      <c r="J24" t="s">
+        <v>96</v>
       </c>
       <c r="K24" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="L24" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0715859044503706</v>
+        <v>-0.234852990805218</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0206553882083731</v>
+        <v>0.080022533974223</v>
       </c>
       <c r="I25" t="n">
-        <v>0.000528802983408987</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
+        <v>0.00333724326076168</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="M25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0583997915743244</v>
+        <v>-0.0567618031634642</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0190905738134793</v>
+        <v>0.0199203968744665</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00222010127443267</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
+        <v>0.00437974577904687</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
       </c>
       <c r="K26" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="L26" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="M26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.353198735100949</v>
+        <v>-0.152530209519202</v>
       </c>
       <c r="H27" t="n">
-        <v>0.11607881294089</v>
+        <v>0.0554791304650737</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00234427490879186</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
+        <v>0.00597179803624028</v>
+      </c>
+      <c r="J27" t="s">
+        <v>79</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L27" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G28" t="n">
-        <v>0.257648126358614</v>
+        <v>0.116733889386086</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0914384859302395</v>
+        <v>0.045383218007766</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00483658426453484</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
+        <v>0.0101059794898584</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
       </c>
       <c r="K28" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="L28" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.143641321848334</v>
+        <v>-0.204985342695828</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0522460151344389</v>
+        <v>0.0813754464670202</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00597179803624027</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
+        <v>0.011768622084356</v>
+      </c>
+      <c r="J29" t="s">
+        <v>79</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="L29" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="G30" t="n">
-        <v>0.122138799319233</v>
+        <v>-0.434734689889857</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0474845118745115</v>
+        <v>0.181839353239818</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0101059794898584</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
+        <v>0.016813429437005</v>
+      </c>
+      <c r="J30" t="s">
+        <v>102</v>
       </c>
       <c r="K30" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.19303956689744</v>
+        <v>-0.234657170732065</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0766331911125423</v>
+        <v>0.0996313348599292</v>
       </c>
       <c r="I31" t="n">
-        <v>0.011768622084356</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
+        <v>0.0185100130422426</v>
+      </c>
+      <c r="J31" t="s">
+        <v>102</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.427652997018029</v>
+        <v>-0.0805072719284817</v>
       </c>
       <c r="H32" t="n">
-        <v>0.178877246737614</v>
+        <v>0.034521875068157</v>
       </c>
       <c r="I32" t="n">
-        <v>0.016813429437005</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1</v>
+        <v>0.0196972485696601</v>
+      </c>
+      <c r="J32" t="s">
+        <v>96</v>
       </c>
       <c r="K32" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="L32" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0687216776827296</v>
+        <v>0.0375847782359493</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0289291171901688</v>
+        <v>0.0166770564863125</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0175242735098119</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1</v>
+        <v>0.0242161948123624</v>
+      </c>
+      <c r="J33" t="s">
+        <v>107</v>
       </c>
       <c r="K33" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0828025288072722</v>
+        <v>-0.180000350524033</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0348767549493167</v>
+        <v>0.0806455651198542</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0175895657245515</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1</v>
+        <v>0.0256154143583576</v>
+      </c>
+      <c r="J34" t="s">
+        <v>91</v>
       </c>
       <c r="K34" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="L34" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.230834678412169</v>
+        <v>0.129697012145045</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0980083714059038</v>
+        <v>0.058290791975301</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0185100130422426</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
+        <v>0.0260812381470792</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L35" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G36" t="n">
-        <v>0.108262881222283</v>
+        <v>0.128196739397497</v>
       </c>
       <c r="H36" t="n">
-        <v>0.048475995643285</v>
+        <v>0.0590887694270317</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0255272097761928</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1</v>
+        <v>0.0300400547593275</v>
+      </c>
+      <c r="J36" t="s">
+        <v>96</v>
       </c>
       <c r="K36" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="L36" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="M36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.174878375091219</v>
+        <v>-0.00949082818845684</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0783507662369253</v>
+        <v>0.00485637279734111</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0256154143583576</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1</v>
+        <v>0.0506652905717506</v>
+      </c>
+      <c r="J37" t="s">
+        <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="L37" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="G38" t="n">
-        <v>0.128828469958538</v>
+        <v>-0.0703051061336698</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0579004359364217</v>
+        <v>0.0384950500998993</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0260812381470792</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1</v>
+        <v>0.0677988432701572</v>
+      </c>
+      <c r="J38" t="s">
+        <v>91</v>
       </c>
       <c r="K38" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="L38" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0485223885725153</v>
+        <v>0.380775464629855</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0218278369911285</v>
+        <v>0.209104038072319</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0262185589387214</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1</v>
+        <v>0.0686090295498249</v>
+      </c>
+      <c r="J39" t="s">
+        <v>107</v>
       </c>
       <c r="K39" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="M39" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.128445219237395</v>
+        <v>0.136307434289649</v>
       </c>
       <c r="H40" t="n">
-        <v>0.058732930227653</v>
+        <v>0.0762905377544335</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0287471221565718</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1</v>
+        <v>0.0739878322147785</v>
+      </c>
+      <c r="J40" t="s">
+        <v>112</v>
       </c>
       <c r="K40" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="L40" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="M40" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G41" t="n">
-        <v>0.508177301829907</v>
+        <v>0.225591179578967</v>
       </c>
       <c r="H41" t="n">
-        <v>0.255652238240837</v>
+        <v>0.128166667300416</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0468373701540016</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1</v>
+        <v>0.0783842019999535</v>
+      </c>
+      <c r="J41" t="s">
+        <v>107</v>
       </c>
       <c r="K41" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="M41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G42" t="n">
-        <v>0.211729326683012</v>
+        <v>0.0522827473013847</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0304039004247154</v>
+        <v>0.0331014817292532</v>
       </c>
       <c r="I42" t="n">
-        <v>0.00000000000331010167925587</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.0000000436205199292339</v>
+        <v>0.114228638917844</v>
+      </c>
+      <c r="J42" t="s">
+        <v>50</v>
       </c>
       <c r="K42" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L42" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.0840640340075235</v>
+        <v>0.137301874171096</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0145757775116254</v>
+        <v>0.0874860784162113</v>
       </c>
       <c r="I43" t="n">
-        <v>0.00000000805138232431668</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.000104128527600388</v>
+        <v>0.116551509594974</v>
+      </c>
+      <c r="J43" t="s">
+        <v>112</v>
       </c>
       <c r="K43" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="L43" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
         <v>25</v>
       </c>
-      <c r="B44" t="s">
-        <v>26</v>
-      </c>
       <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
         <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>28</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G44" t="n">
-        <v>0.665926187711415</v>
+        <v>-0.121631193255439</v>
       </c>
       <c r="H44" t="n">
-        <v>0.121197332031885</v>
+        <v>0.0851486132778742</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0000000391682539383266</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.000506876374215885</v>
+        <v>0.153160158236334</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L44" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M44" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G45" t="n">
-        <v>0.583561585209278</v>
+        <v>0.00940759501305144</v>
       </c>
       <c r="H45" t="n">
-        <v>0.110958943193814</v>
+        <v>0.00665419175644981</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000000144638720432132</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.00187176968111221</v>
+        <v>0.157425104380345</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
       </c>
       <c r="K45" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="L45" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M45" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G46" t="n">
-        <v>0.775045235366004</v>
+        <v>0.129101851799189</v>
       </c>
       <c r="H46" t="n">
-        <v>0.147367822734206</v>
+        <v>0.0926518924541764</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000000144638720432132</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.00187176968111221</v>
+        <v>0.163496566531537</v>
+      </c>
+      <c r="J46" t="s">
+        <v>112</v>
       </c>
       <c r="K46" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="L46" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M46" t="s">
+        <v>22</v>
+      </c>
+      <c r="N46" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.118120160194023</v>
+        <v>0.0106975279217535</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0224642214390677</v>
+        <v>0.0088146085964796</v>
       </c>
       <c r="I47" t="n">
-        <v>0.000000145514830772197</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.00188194330637682</v>
+        <v>0.224895352379698</v>
+      </c>
+      <c r="J47" t="s">
+        <v>55</v>
       </c>
       <c r="K47" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="L47" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N47" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0840494809738909</v>
+        <v>0.0801810981374976</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0161811084065689</v>
+        <v>0.0679783122414775</v>
       </c>
       <c r="I48" t="n">
-        <v>0.000000205494989567005</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.00265931065998661</v>
+        <v>0.238195162582371</v>
+      </c>
+      <c r="J48" t="s">
+        <v>118</v>
       </c>
       <c r="K48" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="L48" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.132049054503129</v>
+        <v>-0.204451631262372</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0255674949252993</v>
+        <v>0.18841211358463</v>
       </c>
       <c r="I49" t="n">
-        <v>0.000000240793967187982</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.00311611472937968</v>
+        <v>0.277864094950152</v>
+      </c>
+      <c r="J49" t="s">
+        <v>118</v>
       </c>
       <c r="K49" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="L49" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0721269527687155</v>
+        <v>-0.177903341703612</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0140622925309272</v>
+        <v>0.197778337657547</v>
       </c>
       <c r="I50" t="n">
-        <v>0.000000291125375665788</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.00376512448348564</v>
+        <v>0.368381746878232</v>
+      </c>
+      <c r="J50" t="s">
+        <v>123</v>
       </c>
       <c r="K50" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="L50" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M50" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.121171107712124</v>
+        <v>-0.236001623650923</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0249426420866205</v>
+        <v>0.302748431255168</v>
       </c>
       <c r="I51" t="n">
-        <v>0.00000118583351891349</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.0156269141122419</v>
+        <v>0.435667302191738</v>
+      </c>
+      <c r="J51" t="s">
+        <v>123</v>
       </c>
       <c r="K51" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="L51" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M51" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0542287140825509</v>
+        <v>-0.0650569130402119</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0114130673904532</v>
+        <v>0.11178530359769</v>
       </c>
       <c r="I52" t="n">
-        <v>0.00000201954785389801</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.026118812394463</v>
+        <v>0.560579537551385</v>
+      </c>
+      <c r="J52" t="s">
+        <v>128</v>
       </c>
       <c r="K52" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G53" t="n">
-        <v>0.139540912988852</v>
+        <v>-0.177696116767338</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0294163691841334</v>
+        <v>0.358216679898879</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00000209903031327114</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.0276610214682871</v>
+        <v>0.619853752527493</v>
+      </c>
+      <c r="J53" t="s">
+        <v>128</v>
       </c>
       <c r="K53" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" t="s">
         <v>25</v>
       </c>
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
       <c r="C54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" t="s">
         <v>27</v>
-      </c>
-      <c r="D54" t="s">
-        <v>22</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54" t="n">
-        <v>0.369605582762547</v>
+        <v>-0.271200598452694</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0818397536224567</v>
+        <v>0.551387533259924</v>
       </c>
       <c r="I54" t="n">
-        <v>0.00000629559827811335</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.08142097253084</v>
+        <v>0.622824566102615</v>
+      </c>
+      <c r="J54" t="s">
+        <v>128</v>
       </c>
       <c r="K54" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M54" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.042904920113963</v>
+        <v>-0.0132716562599065</v>
       </c>
       <c r="H55" t="n">
-        <v>0.00981087492134312</v>
+        <v>0.0339354999661869</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0000122438349651445</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.161349257170674</v>
+        <v>0.695734598194798</v>
+      </c>
+      <c r="J55" t="s">
+        <v>123</v>
       </c>
       <c r="K55" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="L55" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M55" t="s">
+        <v>22</v>
+      </c>
+      <c r="N55" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="G56" t="n">
-        <v>0.335993894262319</v>
+        <v>0.0444648630399437</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0774415817855003</v>
+        <v>0.132713541744824</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0000143343985860181</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.185386776912972</v>
+        <v>0.73759196821303</v>
+      </c>
+      <c r="J56" t="s">
+        <v>118</v>
       </c>
       <c r="K56" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="L56" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N56" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G57" t="n">
-        <v>0.446243333112288</v>
+        <v>-0.0101954674080918</v>
       </c>
       <c r="H57" t="n">
-        <v>0.102852433236389</v>
+        <v>0.0483336956443867</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0000143343985860181</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.185386776912972</v>
+        <v>0.832934774563498</v>
+      </c>
+      <c r="J57" t="s">
+        <v>36</v>
       </c>
       <c r="K57" t="s">
         <v>37</v>
       </c>
       <c r="L57" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N57" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.172867183157246</v>
+        <v>-0.00709864570076676</v>
       </c>
       <c r="H58" t="n">
-        <v>0.040228292994355</v>
+        <v>0.0464881338037286</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0000173004753897291</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.223885452018485</v>
+        <v>0.878636427092388</v>
+      </c>
+      <c r="J58" t="s">
+        <v>102</v>
       </c>
       <c r="K58" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="L58" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M58" t="s">
+        <v>22</v>
+      </c>
+      <c r="N58" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="G59" t="n">
-        <v>0.362850153443253</v>
+        <v>-1.15651866245609</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0899410926783714</v>
+        <v>0.117688084507346</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0000547632302007518</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.708690962027929</v>
+        <v>0.0000000000000000000000861623785683965</v>
+      </c>
+      <c r="J59" t="s">
+        <v>128</v>
       </c>
       <c r="K59" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M59" t="s">
+        <v>134</v>
+      </c>
+      <c r="N59" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.349356037352801</v>
+        <v>-1.6361598986457</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0925103555842017</v>
+        <v>0.170986705940067</v>
       </c>
       <c r="I60" t="n">
-        <v>0.00015911187698477</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1</v>
+        <v>0.00000000000000000000108017285748758</v>
+      </c>
+      <c r="J60" t="s">
+        <v>128</v>
       </c>
       <c r="K60" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M60" t="s">
+        <v>134</v>
+      </c>
+      <c r="N60" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0755901171617445</v>
+        <v>0.070981637632291</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0204174103239487</v>
+        <v>0.00949686652705669</v>
       </c>
       <c r="I61" t="n">
-        <v>0.000213705804348128</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1</v>
+        <v>0.0000000000000776651154299351</v>
+      </c>
+      <c r="J61" t="s">
+        <v>55</v>
       </c>
       <c r="K61" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="L61" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M61" t="s">
+        <v>134</v>
+      </c>
+      <c r="N61" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G62" t="n">
-        <v>0.130231960968929</v>
+        <v>0.100317394403338</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0354938799965762</v>
+        <v>0.0140302378571423</v>
       </c>
       <c r="I62" t="n">
-        <v>0.000243369228668139</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1</v>
+        <v>0.000000000000867241308805159</v>
+      </c>
+      <c r="J62" t="s">
+        <v>55</v>
       </c>
       <c r="K62" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="L62" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M62" t="s">
+        <v>134</v>
+      </c>
+      <c r="N62" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="G63" t="n">
-        <v>0.172964882198581</v>
+        <v>-0.0797737351937405</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0471404617323014</v>
+        <v>0.0118122739294339</v>
       </c>
       <c r="I63" t="n">
-        <v>0.000243369228668139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1</v>
+        <v>0.0000000000144358994801583</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
       </c>
       <c r="K63" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="L63" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M63" t="s">
+        <v>134</v>
+      </c>
+      <c r="N63" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="G64" t="n">
-        <v>0.216794966396107</v>
+        <v>0.0918844498227772</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0613445545739186</v>
+        <v>0.0137290631635332</v>
       </c>
       <c r="I64" t="n">
-        <v>0.000409237511603276</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1</v>
+        <v>0.0000000000219095591186152</v>
+      </c>
+      <c r="J64" t="s">
+        <v>36</v>
       </c>
       <c r="K64" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="L64" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M64" t="s">
+        <v>134</v>
+      </c>
+      <c r="N64" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0715859044503706</v>
+        <v>-0.31818083310184</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0206553882083731</v>
+        <v>0.0540936389213676</v>
       </c>
       <c r="I65" t="n">
-        <v>0.000528802983408987</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1</v>
+        <v>0.0000000040524556578556</v>
+      </c>
+      <c r="J65" t="s">
+        <v>128</v>
       </c>
       <c r="K65" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M65" t="s">
+        <v>134</v>
+      </c>
+      <c r="N65" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0583997915743244</v>
+        <v>-0.372907244214757</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0190905738134793</v>
+        <v>0.0652129013827702</v>
       </c>
       <c r="I66" t="n">
-        <v>0.00222010127443267</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1</v>
+        <v>0.0000000107592047104773</v>
+      </c>
+      <c r="J66" t="s">
+        <v>85</v>
       </c>
       <c r="K66" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="L66" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M66" t="s">
+        <v>134</v>
+      </c>
+      <c r="N66" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.353198735100949</v>
+        <v>0.703407474357717</v>
       </c>
       <c r="H67" t="n">
-        <v>0.11607881294089</v>
+        <v>0.132286563558087</v>
       </c>
       <c r="I67" t="n">
-        <v>0.00234427490879186</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1</v>
+        <v>0.000000105317777437753</v>
+      </c>
+      <c r="J67" t="s">
+        <v>149</v>
       </c>
       <c r="K67" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="L67" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M67" t="s">
+        <v>134</v>
+      </c>
+      <c r="N67" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G68" t="n">
-        <v>0.257648126358614</v>
+        <v>0.230714391603198</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0914384859302395</v>
+        <v>0.0437690030130438</v>
       </c>
       <c r="I68" t="n">
-        <v>0.00483658426453484</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1</v>
+        <v>0.000000135547793427919</v>
+      </c>
+      <c r="J68" t="s">
+        <v>118</v>
       </c>
       <c r="K68" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="L68" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M68" t="s">
+        <v>134</v>
+      </c>
+      <c r="N68" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.143641321848334</v>
+        <v>-0.0859780497522983</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0522460151344389</v>
+        <v>0.0163896880536164</v>
       </c>
       <c r="I69" t="n">
-        <v>0.00597179803624027</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1</v>
+        <v>0.000000155552894648508</v>
+      </c>
+      <c r="J69" t="s">
+        <v>67</v>
       </c>
       <c r="K69" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="L69" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M69" t="s">
+        <v>134</v>
+      </c>
+      <c r="N69" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="G70" t="n">
-        <v>0.122138799319233</v>
+        <v>0.177155002579822</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0474845118745115</v>
+        <v>0.0343761674584621</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0101059794898584</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1</v>
+        <v>0.00000025577132461117</v>
+      </c>
+      <c r="J70" t="s">
+        <v>79</v>
       </c>
       <c r="K70" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="L70" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M70" t="s">
+        <v>134</v>
+      </c>
+      <c r="N70" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.19303956689744</v>
+        <v>-0.203556063764391</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0766331911125423</v>
+        <v>0.043929337939444</v>
       </c>
       <c r="I71" t="n">
-        <v>0.011768622084356</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1</v>
+        <v>0.00000359160124278165</v>
+      </c>
+      <c r="J71" t="s">
+        <v>85</v>
       </c>
       <c r="K71" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="L71" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M71" t="s">
+        <v>134</v>
+      </c>
+      <c r="N71" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.427652997018029</v>
+        <v>0.248025611601946</v>
       </c>
       <c r="H72" t="n">
-        <v>0.178877246737614</v>
+        <v>0.0548846108946974</v>
       </c>
       <c r="I72" t="n">
-        <v>0.016813429437005</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1</v>
+        <v>0.00000621214094428623</v>
+      </c>
+      <c r="J72" t="s">
+        <v>162</v>
       </c>
       <c r="K72" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="L72" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M72" t="s">
+        <v>134</v>
+      </c>
+      <c r="N72" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="D73" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.0687216776827296</v>
+        <v>0.401354692807081</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0289291171901688</v>
+        <v>0.0899994581853669</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0175242735098119</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1</v>
+        <v>0.00000821420924219875</v>
+      </c>
+      <c r="J73" t="s">
+        <v>149</v>
       </c>
       <c r="K73" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="L73" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M73" t="s">
+        <v>134</v>
+      </c>
+      <c r="N73" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0828025288072722</v>
+        <v>0.201552737130802</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0348767549493167</v>
+        <v>0.046265837409527</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0175895657245515</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1</v>
+        <v>0.0000132215885435206</v>
+      </c>
+      <c r="J74" t="s">
+        <v>168</v>
       </c>
       <c r="K74" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="L74" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M74" t="s">
+        <v>134</v>
+      </c>
+      <c r="N74" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.230834678412169</v>
+        <v>-0.0834137733395769</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0980083714059038</v>
+        <v>0.0206071823483274</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0185100130422426</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1</v>
+        <v>0.0000517010727889265</v>
+      </c>
+      <c r="J75" t="s">
+        <v>85</v>
       </c>
       <c r="K75" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="L75" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M75" t="s">
+        <v>134</v>
+      </c>
+      <c r="N75" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="G76" t="n">
-        <v>0.108262881222283</v>
+        <v>0.100176470989467</v>
       </c>
       <c r="H76" t="n">
-        <v>0.048475995643285</v>
+        <v>0.0256436646723622</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0255272097761928</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1</v>
+        <v>0.0000936502726686565</v>
+      </c>
+      <c r="J76" t="s">
+        <v>162</v>
       </c>
       <c r="K76" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="L76" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M76" t="s">
+        <v>134</v>
+      </c>
+      <c r="N76" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.174878375091219</v>
+        <v>0.158368937703176</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0783507662369253</v>
+        <v>0.0408143353216202</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0256154143583576</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1</v>
+        <v>0.000104358476639114</v>
+      </c>
+      <c r="J77" t="s">
+        <v>149</v>
       </c>
       <c r="K77" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="L77" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M77" t="s">
+        <v>134</v>
+      </c>
+      <c r="N77" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="G78" t="n">
-        <v>0.128828469958538</v>
+        <v>0.288030089979612</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0579004359364217</v>
+        <v>0.0754354204150434</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0260812381470792</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1</v>
+        <v>0.000134410383981603</v>
+      </c>
+      <c r="J78" t="s">
+        <v>79</v>
       </c>
       <c r="K78" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="L78" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M78" t="s">
+        <v>134</v>
+      </c>
+      <c r="N78" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0485223885725153</v>
+        <v>0.655874133139222</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0218278369911285</v>
+        <v>0.174629645239587</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0262185589387214</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1</v>
+        <v>0.000172788201502358</v>
+      </c>
+      <c r="J79" t="s">
+        <v>118</v>
       </c>
       <c r="K79" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="L79" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="M79" t="s">
+        <v>134</v>
+      </c>
+      <c r="N79" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.128445219237395</v>
+        <v>0.310839697845848</v>
       </c>
       <c r="H80" t="n">
-        <v>0.058732930227653</v>
+        <v>0.0843245180265251</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0287471221565718</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1</v>
+        <v>0.000227599294373266</v>
+      </c>
+      <c r="J80" t="s">
+        <v>174</v>
       </c>
       <c r="K80" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="L80" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="M80" t="s">
+        <v>134</v>
+      </c>
+      <c r="N80" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0496581722147988</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0135698308058606</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.000252753164099034</v>
+      </c>
+      <c r="J81" t="s">
+        <v>102</v>
+      </c>
+      <c r="K81" t="s">
+        <v>179</v>
+      </c>
+      <c r="L81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M81" t="s">
+        <v>134</v>
+      </c>
+      <c r="N81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.0702910920791643</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0197357968256946</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.000368596106493048</v>
+      </c>
+      <c r="J82" t="s">
+        <v>67</v>
+      </c>
+      <c r="K82" t="s">
+        <v>155</v>
+      </c>
+      <c r="L82" t="s">
+        <v>31</v>
+      </c>
+      <c r="M82" t="s">
+        <v>134</v>
+      </c>
+      <c r="N82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83" t="s">
+        <v>141</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0986470726459236</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0283981702698807</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.000513311151260876</v>
+      </c>
+      <c r="J83" t="s">
+        <v>36</v>
+      </c>
+      <c r="K83" t="s">
+        <v>142</v>
+      </c>
+      <c r="L83" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" t="s">
+        <v>134</v>
+      </c>
+      <c r="N83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>181</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.650996825839861</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.190865851911457</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.000647830665720375</v>
+      </c>
+      <c r="J84" t="s">
+        <v>29</v>
+      </c>
+      <c r="K84" t="s">
+        <v>182</v>
+      </c>
+      <c r="L84" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" t="s">
+        <v>134</v>
+      </c>
+      <c r="N84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>173</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.424073183557884</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.124586562793644</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.000664447685187391</v>
+      </c>
+      <c r="J85" t="s">
+        <v>174</v>
+      </c>
+      <c r="K85" t="s">
+        <v>175</v>
+      </c>
+      <c r="L85" t="s">
+        <v>21</v>
+      </c>
+      <c r="M85" t="s">
+        <v>134</v>
+      </c>
+      <c r="N85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" t="s">
+        <v>161</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.265647077745292</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0803783888358106</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.000949911457424844</v>
+      </c>
+      <c r="J86" t="s">
+        <v>162</v>
+      </c>
+      <c r="K86" t="s">
+        <v>163</v>
+      </c>
+      <c r="L86" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86" t="s">
+        <v>134</v>
+      </c>
+      <c r="N86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" t="s">
+        <v>178</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0902715397301156</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0287659136803148</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.00170022127431518</v>
+      </c>
+      <c r="J87" t="s">
+        <v>102</v>
+      </c>
+      <c r="K87" t="s">
+        <v>179</v>
+      </c>
+      <c r="L87" t="s">
+        <v>21</v>
+      </c>
+      <c r="M87" t="s">
+        <v>134</v>
+      </c>
+      <c r="N87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.0262230472052985</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.00843777528323428</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.00188475812233099</v>
+      </c>
+      <c r="J88" t="s">
+        <v>67</v>
+      </c>
+      <c r="K88" t="s">
+        <v>155</v>
+      </c>
+      <c r="L88" t="s">
+        <v>31</v>
+      </c>
+      <c r="M88" t="s">
+        <v>134</v>
+      </c>
+      <c r="N88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.349264896015518</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.114785956183612</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.00234427490879186</v>
+      </c>
+      <c r="J89" t="s">
+        <v>91</v>
+      </c>
+      <c r="K89" t="s">
+        <v>92</v>
+      </c>
+      <c r="L89" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89" t="s">
+        <v>134</v>
+      </c>
+      <c r="N89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0188458670601005</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.00638044752271293</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.00313998769935809</v>
+      </c>
+      <c r="J90" t="s">
+        <v>55</v>
+      </c>
+      <c r="K90" t="s">
+        <v>136</v>
+      </c>
+      <c r="L90" t="s">
+        <v>31</v>
+      </c>
+      <c r="M90" t="s">
+        <v>134</v>
+      </c>
+      <c r="N90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91" t="s">
+        <v>181</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.988342688597897</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.360906055784583</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.00617194037945857</v>
+      </c>
+      <c r="J91" t="s">
+        <v>29</v>
+      </c>
+      <c r="K91" t="s">
+        <v>182</v>
+      </c>
+      <c r="L91" t="s">
+        <v>21</v>
+      </c>
+      <c r="M91" t="s">
+        <v>134</v>
+      </c>
+      <c r="N91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.250752439930718</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.0976081764568503</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.0102001399418441</v>
+      </c>
+      <c r="J92" t="s">
+        <v>118</v>
+      </c>
+      <c r="K92" t="s">
+        <v>153</v>
+      </c>
+      <c r="L92" t="s">
+        <v>31</v>
+      </c>
+      <c r="M92" t="s">
+        <v>134</v>
+      </c>
+      <c r="N92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93" t="s">
+        <v>173</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0965453462226513</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0404741617062237</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.0170625300763501</v>
+      </c>
+      <c r="J93" t="s">
+        <v>174</v>
+      </c>
+      <c r="K93" t="s">
+        <v>175</v>
+      </c>
+      <c r="L93" t="s">
+        <v>21</v>
+      </c>
+      <c r="M93" t="s">
+        <v>134</v>
+      </c>
+      <c r="N93" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" t="s">
+        <v>178</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0959388540671329</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.0425215541607771</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.0240555713029165</v>
+      </c>
+      <c r="J94" t="s">
+        <v>102</v>
+      </c>
+      <c r="K94" t="s">
+        <v>179</v>
+      </c>
+      <c r="L94" t="s">
+        <v>21</v>
+      </c>
+      <c r="M94" t="s">
+        <v>134</v>
+      </c>
+      <c r="N94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.17293062353165</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.0774781150183184</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.0256154143583576</v>
+      </c>
+      <c r="J95" t="s">
+        <v>91</v>
+      </c>
+      <c r="K95" t="s">
+        <v>92</v>
+      </c>
+      <c r="L95" t="s">
+        <v>21</v>
+      </c>
+      <c r="M95" t="s">
+        <v>134</v>
+      </c>
+      <c r="N95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" t="s">
+        <v>137</v>
+      </c>
+      <c r="D96" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96" t="s">
+        <v>138</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.0578631948749742</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0267699419206396</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.0306568366493791</v>
+      </c>
+      <c r="J96" t="s">
+        <v>96</v>
+      </c>
+      <c r="K96" t="s">
+        <v>139</v>
+      </c>
+      <c r="L96" t="s">
+        <v>21</v>
+      </c>
+      <c r="M96" t="s">
+        <v>134</v>
+      </c>
+      <c r="N96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.219311182870848</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.109736065788403</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.0456588722933555</v>
+      </c>
+      <c r="J97" t="s">
+        <v>79</v>
+      </c>
+      <c r="K97" t="s">
+        <v>158</v>
+      </c>
+      <c r="L97" t="s">
+        <v>21</v>
+      </c>
+      <c r="M97" t="s">
+        <v>134</v>
+      </c>
+      <c r="N97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98" t="s">
+        <v>138</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0898359328167347</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0463286010370758</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.0524887881305089</v>
+      </c>
+      <c r="J98" t="s">
+        <v>96</v>
+      </c>
+      <c r="K98" t="s">
+        <v>139</v>
+      </c>
+      <c r="L98" t="s">
+        <v>21</v>
+      </c>
+      <c r="M98" t="s">
+        <v>134</v>
+      </c>
+      <c r="N98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99" t="s">
+        <v>185</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.229907339261836</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.120858911850164</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.0571347227945307</v>
+      </c>
+      <c r="J99" t="s">
+        <v>107</v>
+      </c>
+      <c r="K99" t="s">
+        <v>186</v>
+      </c>
+      <c r="L99" t="s">
+        <v>21</v>
+      </c>
+      <c r="M99" t="s">
+        <v>134</v>
+      </c>
+      <c r="N99" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100" t="s">
+        <v>90</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.0675437898079596</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0369831114066018</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.0677988432701572</v>
+      </c>
+      <c r="J100" t="s">
+        <v>91</v>
+      </c>
+      <c r="K100" t="s">
+        <v>92</v>
+      </c>
+      <c r="L100" t="s">
+        <v>21</v>
+      </c>
+      <c r="M100" t="s">
+        <v>134</v>
+      </c>
+      <c r="N100" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>185</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.286731219057736</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.17469954783507</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.100738895793583</v>
+      </c>
+      <c r="J101" t="s">
+        <v>107</v>
+      </c>
+      <c r="K101" t="s">
+        <v>186</v>
+      </c>
+      <c r="L101" t="s">
+        <v>21</v>
+      </c>
+      <c r="M101" t="s">
+        <v>134</v>
+      </c>
+      <c r="N101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>188</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>189</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.307848732965454</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.203749340292677</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.130809110037742</v>
+      </c>
+      <c r="J102" t="s">
+        <v>190</v>
+      </c>
+      <c r="K102" t="s">
+        <v>191</v>
+      </c>
+      <c r="L102" t="s">
+        <v>21</v>
+      </c>
+      <c r="M102" t="s">
+        <v>134</v>
+      </c>
+      <c r="N102" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" t="s">
+        <v>166</v>
+      </c>
+      <c r="D103" t="s">
+        <v>42</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103" t="s">
+        <v>167</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.136938195836227</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0964460785059576</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.155653675909354</v>
+      </c>
+      <c r="J103" t="s">
+        <v>168</v>
+      </c>
+      <c r="K103" t="s">
+        <v>169</v>
+      </c>
+      <c r="L103" t="s">
+        <v>21</v>
+      </c>
+      <c r="M103" t="s">
+        <v>134</v>
+      </c>
+      <c r="N103" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" t="s">
+        <v>193</v>
+      </c>
+      <c r="D104" t="s">
+        <v>42</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.0521886519258678</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.0448423310363002</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.244494703493346</v>
+      </c>
+      <c r="J104" t="s">
+        <v>73</v>
+      </c>
+      <c r="K104" t="s">
+        <v>194</v>
+      </c>
+      <c r="L104" t="s">
+        <v>31</v>
+      </c>
+      <c r="M104" t="s">
+        <v>134</v>
+      </c>
+      <c r="N104" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105" t="s">
+        <v>181</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0821912622935814</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.0779075908342093</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.291432639578443</v>
+      </c>
+      <c r="J105" t="s">
+        <v>29</v>
+      </c>
+      <c r="K105" t="s">
+        <v>182</v>
+      </c>
+      <c r="L105" t="s">
+        <v>21</v>
+      </c>
+      <c r="M105" t="s">
+        <v>134</v>
+      </c>
+      <c r="N105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>196</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.0653018533251066</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.06328854686466</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.302160409795226</v>
+      </c>
+      <c r="J106" t="s">
+        <v>197</v>
+      </c>
+      <c r="K106" t="s">
+        <v>198</v>
+      </c>
+      <c r="L106" t="s">
+        <v>31</v>
+      </c>
+      <c r="M106" t="s">
+        <v>134</v>
+      </c>
+      <c r="N106" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" t="s">
+        <v>200</v>
+      </c>
+      <c r="D107" t="s">
+        <v>42</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107" t="s">
+        <v>201</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0534470111061319</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0581138128769477</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.357731914630287</v>
+      </c>
+      <c r="J107" t="s">
+        <v>50</v>
+      </c>
+      <c r="K107" t="s">
+        <v>202</v>
+      </c>
+      <c r="L107" t="s">
+        <v>21</v>
+      </c>
+      <c r="M107" t="s">
+        <v>134</v>
+      </c>
+      <c r="N107" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>187</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>188</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108" t="s">
+        <v>189</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0586798100042909</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.0641234049914256</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.36013518845897</v>
+      </c>
+      <c r="J108" t="s">
+        <v>190</v>
+      </c>
+      <c r="K108" t="s">
+        <v>191</v>
+      </c>
+      <c r="L108" t="s">
+        <v>21</v>
+      </c>
+      <c r="M108" t="s">
+        <v>134</v>
+      </c>
+      <c r="N108" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109" t="s">
+        <v>185</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0537062912305039</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.0612888672216264</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.380877101941982</v>
+      </c>
+      <c r="J109" t="s">
+        <v>107</v>
+      </c>
+      <c r="K109" t="s">
+        <v>186</v>
+      </c>
+      <c r="L109" t="s">
+        <v>21</v>
+      </c>
+      <c r="M109" t="s">
+        <v>134</v>
+      </c>
+      <c r="N109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>203</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0113047479710024</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.0130851169687302</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.387621186911736</v>
+      </c>
+      <c r="J110" t="s">
+        <v>112</v>
+      </c>
+      <c r="K110" t="s">
+        <v>204</v>
+      </c>
+      <c r="L110" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" t="s">
+        <v>134</v>
+      </c>
+      <c r="N110" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>205</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111" t="s">
+        <v>206</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.0120706704088047</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.013994778661976</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.388405601582952</v>
+      </c>
+      <c r="J111" t="s">
         <v>44</v>
       </c>
-      <c r="G81" t="n">
-        <v>0.508177301829907</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.255652238240837</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.0468373701540016</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="s">
-        <v>81</v>
-      </c>
-      <c r="L81" t="s">
-        <v>82</v>
+      <c r="K111" t="s">
+        <v>206</v>
+      </c>
+      <c r="L111" t="s">
+        <v>21</v>
+      </c>
+      <c r="M111" t="s">
+        <v>134</v>
+      </c>
+      <c r="N111" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" t="s">
+        <v>193</v>
+      </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0487259946701072</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0592393402711305</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.410776663113024</v>
+      </c>
+      <c r="J112" t="s">
+        <v>73</v>
+      </c>
+      <c r="K112" t="s">
+        <v>194</v>
+      </c>
+      <c r="L112" t="s">
+        <v>31</v>
+      </c>
+      <c r="M112" t="s">
+        <v>134</v>
+      </c>
+      <c r="N112" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113" t="s">
+        <v>141</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0321050445804634</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.041550911389865</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.439719103486869</v>
+      </c>
+      <c r="J113" t="s">
+        <v>36</v>
+      </c>
+      <c r="K113" t="s">
+        <v>142</v>
+      </c>
+      <c r="L113" t="s">
+        <v>21</v>
+      </c>
+      <c r="M113" t="s">
+        <v>134</v>
+      </c>
+      <c r="N113" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>195</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>196</v>
+      </c>
+      <c r="D114" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114" t="s">
+        <v>28</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.285932498885765</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.376680122534491</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.447801285823073</v>
+      </c>
+      <c r="J114" t="s">
+        <v>197</v>
+      </c>
+      <c r="K114" t="s">
+        <v>198</v>
+      </c>
+      <c r="L114" t="s">
+        <v>31</v>
+      </c>
+      <c r="M114" t="s">
+        <v>134</v>
+      </c>
+      <c r="N114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>165</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>166</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115" t="s">
+        <v>167</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.089117349136204</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.140691316759146</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.526456367163128</v>
+      </c>
+      <c r="J115" t="s">
+        <v>168</v>
+      </c>
+      <c r="K115" t="s">
+        <v>169</v>
+      </c>
+      <c r="L115" t="s">
+        <v>21</v>
+      </c>
+      <c r="M115" t="s">
+        <v>134</v>
+      </c>
+      <c r="N115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116" t="s">
+        <v>209</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0335547190529173</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.0578186217079084</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.561682324644774</v>
+      </c>
+      <c r="J116" t="s">
+        <v>210</v>
+      </c>
+      <c r="K116" t="s">
+        <v>211</v>
+      </c>
+      <c r="L116" t="s">
+        <v>21</v>
+      </c>
+      <c r="M116" t="s">
+        <v>134</v>
+      </c>
+      <c r="N116" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>193</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.00589090492378051</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.010640443535563</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.579829763596899</v>
+      </c>
+      <c r="J117" t="s">
+        <v>73</v>
+      </c>
+      <c r="K117" t="s">
+        <v>194</v>
+      </c>
+      <c r="L117" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" t="s">
+        <v>134</v>
+      </c>
+      <c r="N117" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>47</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" t="s">
+        <v>200</v>
+      </c>
+      <c r="D118" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118" t="s">
+        <v>201</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0562537522323106</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.103093028721049</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.585299604567238</v>
+      </c>
+      <c r="J118" t="s">
+        <v>50</v>
+      </c>
+      <c r="K118" t="s">
+        <v>202</v>
+      </c>
+      <c r="L118" t="s">
+        <v>21</v>
+      </c>
+      <c r="M118" t="s">
+        <v>134</v>
+      </c>
+      <c r="N118" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>207</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" t="s">
+        <v>208</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119" t="s">
+        <v>209</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-0.0118014656296363</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.0274600864086119</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.667364433542179</v>
+      </c>
+      <c r="J119" t="s">
+        <v>210</v>
+      </c>
+      <c r="K119" t="s">
+        <v>211</v>
+      </c>
+      <c r="L119" t="s">
+        <v>21</v>
+      </c>
+      <c r="M119" t="s">
+        <v>134</v>
+      </c>
+      <c r="N119" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" t="s">
+        <v>188</v>
+      </c>
+      <c r="D120" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120" t="s">
+        <v>189</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0566158842545153</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.139731664688646</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.685348317185232</v>
+      </c>
+      <c r="J120" t="s">
+        <v>190</v>
+      </c>
+      <c r="K120" t="s">
+        <v>191</v>
+      </c>
+      <c r="L120" t="s">
+        <v>21</v>
+      </c>
+      <c r="M120" t="s">
+        <v>134</v>
+      </c>
+      <c r="N120" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>195</v>
+      </c>
+      <c r="B121" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0847435049895473</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.213365778304078</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.691238582267427</v>
+      </c>
+      <c r="J121" t="s">
+        <v>197</v>
+      </c>
+      <c r="K121" t="s">
+        <v>198</v>
+      </c>
+      <c r="L121" t="s">
+        <v>31</v>
+      </c>
+      <c r="M121" t="s">
+        <v>134</v>
+      </c>
+      <c r="N121" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>47</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>200</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122" t="s">
+        <v>201</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-0.00942827158978574</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.0237921260921315</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.691900716326144</v>
+      </c>
+      <c r="J122" t="s">
+        <v>50</v>
+      </c>
+      <c r="K122" t="s">
+        <v>202</v>
+      </c>
+      <c r="L122" t="s">
+        <v>21</v>
+      </c>
+      <c r="M122" t="s">
+        <v>134</v>
+      </c>
+      <c r="N122" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>110</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>203</v>
+      </c>
+      <c r="D123" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123" t="s">
+        <v>28</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.00663537546766644</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0176335357732944</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.706699108419827</v>
+      </c>
+      <c r="J123" t="s">
+        <v>112</v>
+      </c>
+      <c r="K123" t="s">
+        <v>204</v>
+      </c>
+      <c r="L123" t="s">
+        <v>31</v>
+      </c>
+      <c r="M123" t="s">
+        <v>134</v>
+      </c>
+      <c r="N123" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>207</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" t="s">
+        <v>208</v>
+      </c>
+      <c r="D124" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124"/>
+      <c r="F124" t="s">
+        <v>209</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.0281701840567149</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.0829712629287643</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.734220022334234</v>
+      </c>
+      <c r="J124" t="s">
+        <v>210</v>
+      </c>
+      <c r="K124" t="s">
+        <v>211</v>
+      </c>
+      <c r="L124" t="s">
+        <v>21</v>
+      </c>
+      <c r="M124" t="s">
+        <v>134</v>
+      </c>
+      <c r="N124" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" t="s">
+        <v>203</v>
+      </c>
+      <c r="D125" t="s">
+        <v>42</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125" t="s">
+        <v>28</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.00631226956703562</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.0209844883895142</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.763562085707181</v>
+      </c>
+      <c r="J125" t="s">
+        <v>112</v>
+      </c>
+      <c r="K125" t="s">
+        <v>204</v>
+      </c>
+      <c r="L125" t="s">
+        <v>31</v>
+      </c>
+      <c r="M125" t="s">
+        <v>134</v>
+      </c>
+      <c r="N125" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
